--- a/Code/Results/Cases/Case_6_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.01781881143886</v>
+        <v>12.99647172854572</v>
       </c>
       <c r="C2">
-        <v>10.31140347410722</v>
+        <v>8.178564876688402</v>
       </c>
       <c r="D2">
-        <v>5.717551136149505</v>
+        <v>5.516204990210856</v>
       </c>
       <c r="E2">
-        <v>7.257991684228521</v>
+        <v>8.261391603913889</v>
       </c>
       <c r="F2">
-        <v>38.38641512930072</v>
+        <v>22.45312880198251</v>
       </c>
       <c r="G2">
-        <v>2.113580054704738</v>
+        <v>2.118009224005797</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.6884463189797</v>
+        <v>10.86979578855075</v>
       </c>
       <c r="L2">
-        <v>6.197056547526995</v>
+        <v>6.203339793693086</v>
       </c>
       <c r="M2">
-        <v>11.48821709487462</v>
+        <v>9.560531046349743</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.77246889093383</v>
+        <v>18.7606823515178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.86570413662032</v>
+        <v>12.11599270660482</v>
       </c>
       <c r="C3">
-        <v>9.819259530271134</v>
+        <v>8.193599423724402</v>
       </c>
       <c r="D3">
-        <v>5.765917229753849</v>
+        <v>5.419537255097535</v>
       </c>
       <c r="E3">
-        <v>7.280451616360942</v>
+        <v>8.276582726181516</v>
       </c>
       <c r="F3">
-        <v>36.91305948169291</v>
+        <v>22.20576402062209</v>
       </c>
       <c r="G3">
-        <v>2.123423442100602</v>
+        <v>2.123077243896433</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.67331393759984</v>
+        <v>10.29051503474835</v>
       </c>
       <c r="L3">
-        <v>6.126219096213967</v>
+        <v>6.126184775260887</v>
       </c>
       <c r="M3">
-        <v>11.0668240135612</v>
+        <v>9.244135629937663</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.7852268906063</v>
+        <v>18.77071901474089</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.14184231482932</v>
+        <v>11.54354681102896</v>
       </c>
       <c r="C4">
-        <v>9.505583211627313</v>
+        <v>8.203770268606613</v>
       </c>
       <c r="D4">
-        <v>5.796337051729189</v>
+        <v>5.358855123863314</v>
       </c>
       <c r="E4">
-        <v>7.295601199930883</v>
+        <v>8.289923488637399</v>
       </c>
       <c r="F4">
-        <v>36.01044175042522</v>
+        <v>22.07043721919962</v>
       </c>
       <c r="G4">
-        <v>2.129612979060743</v>
+        <v>2.126287787823721</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.01732743531068</v>
+        <v>9.917470902041886</v>
       </c>
       <c r="L4">
-        <v>6.085729013905357</v>
+        <v>6.081080928955731</v>
       </c>
       <c r="M4">
-        <v>10.8086455457205</v>
+        <v>9.048191120200102</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.18678896559939</v>
+        <v>18.79036179217246</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.84051805473915</v>
+        <v>11.30221714128354</v>
       </c>
       <c r="C5">
-        <v>9.374887924455715</v>
+        <v>8.208149682821674</v>
       </c>
       <c r="D5">
-        <v>5.808914815266895</v>
+        <v>5.333807859573766</v>
       </c>
       <c r="E5">
-        <v>7.302108499431897</v>
+        <v>8.296344971963405</v>
       </c>
       <c r="F5">
-        <v>35.64345716592101</v>
+        <v>22.0193905794051</v>
       </c>
       <c r="G5">
-        <v>2.132173997974229</v>
+        <v>2.127621486952247</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.74167931377153</v>
+        <v>9.761150210457153</v>
       </c>
       <c r="L5">
-        <v>6.069974108356887</v>
+        <v>6.063279031131614</v>
       </c>
       <c r="M5">
-        <v>10.70370497669237</v>
+        <v>8.968035973452977</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.94502001058956</v>
+        <v>18.80163768104899</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.79010653502412</v>
+        <v>11.26165668537986</v>
       </c>
       <c r="C6">
-        <v>9.353013689638095</v>
+        <v>8.208891015025781</v>
       </c>
       <c r="D6">
-        <v>5.811014300008257</v>
+        <v>5.329629980054319</v>
       </c>
       <c r="E6">
-        <v>7.303208964825379</v>
+        <v>8.297470044193282</v>
       </c>
       <c r="F6">
-        <v>35.58258084324184</v>
+        <v>22.01115990283804</v>
       </c>
       <c r="G6">
-        <v>2.132601651333249</v>
+        <v>2.127844494801439</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.69540211598636</v>
+        <v>9.734935646100727</v>
       </c>
       <c r="L6">
-        <v>6.067402710402571</v>
+        <v>6.060358164929038</v>
       </c>
       <c r="M6">
-        <v>10.68629996543249</v>
+        <v>8.954711321870546</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.90500609150726</v>
+        <v>18.80370415448803</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1378039631992</v>
+        <v>11.54032482808967</v>
       </c>
       <c r="C7">
-        <v>9.503832188396276</v>
+        <v>8.203828382500541</v>
       </c>
       <c r="D7">
-        <v>5.796505945330267</v>
+        <v>5.358518598085634</v>
       </c>
       <c r="E7">
-        <v>7.295687618561582</v>
+        <v>8.290006134484774</v>
       </c>
       <c r="F7">
-        <v>36.00548860086613</v>
+        <v>22.06973227644734</v>
       </c>
       <c r="G7">
-        <v>2.12964735835374</v>
+        <v>2.126305671106048</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.013643807405</v>
+        <v>9.915380028877433</v>
       </c>
       <c r="L7">
-        <v>6.085513534729479</v>
+        <v>6.080838495720352</v>
       </c>
       <c r="M7">
-        <v>10.8072290100346</v>
+        <v>9.047111200648015</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.18351966796693</v>
+        <v>18.79050077365001</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61593668023118</v>
+        <v>12.69945825705106</v>
       </c>
       <c r="C8">
-        <v>10.14410669033147</v>
+        <v>8.183552795966825</v>
       </c>
       <c r="D8">
-        <v>5.734077412502034</v>
+        <v>5.4831583338424</v>
       </c>
       <c r="E8">
-        <v>7.265448746287658</v>
+        <v>8.265781917440664</v>
       </c>
       <c r="F8">
-        <v>37.87816368758551</v>
+        <v>22.36436659718962</v>
       </c>
       <c r="G8">
-        <v>2.116945139715588</v>
+        <v>2.119736513969897</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.34514663310437</v>
+        <v>10.67369681137227</v>
       </c>
       <c r="L8">
-        <v>6.17200209021351</v>
+        <v>6.176270536608578</v>
       </c>
       <c r="M8">
-        <v>11.34287756035215</v>
+        <v>9.451852297987202</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.43054991710181</v>
+        <v>18.76127390023717</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.55568624748252</v>
+        <v>14.72225812987952</v>
       </c>
       <c r="C9">
-        <v>11.30834815724119</v>
+        <v>8.151326388342635</v>
       </c>
       <c r="D9">
-        <v>5.617429520147735</v>
+        <v>5.716421735817045</v>
       </c>
       <c r="E9">
-        <v>7.217333090125293</v>
+        <v>8.25121751769796</v>
       </c>
       <c r="F9">
-        <v>41.55490580198947</v>
+        <v>23.07580330928546</v>
       </c>
       <c r="G9">
-        <v>2.093088045401239</v>
+        <v>2.107612187749664</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.70207117216897</v>
+        <v>12.0209847110671</v>
       </c>
       <c r="L9">
-        <v>6.36591217495169</v>
+        <v>6.381046923167364</v>
       </c>
       <c r="M9">
-        <v>12.39288797837434</v>
+        <v>10.2276576505671</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.93177900493219</v>
+        <v>18.81621518142924</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.55834164339922</v>
+        <v>16.05907306011277</v>
       </c>
       <c r="C10">
-        <v>12.10910029728541</v>
+        <v>8.132366002938614</v>
       </c>
       <c r="D10">
-        <v>5.5353535846391</v>
+        <v>5.880234451668165</v>
       </c>
       <c r="E10">
-        <v>7.189419068820814</v>
+        <v>8.262118626009169</v>
       </c>
       <c r="F10">
-        <v>44.24801219596635</v>
+        <v>23.68245351988166</v>
       </c>
       <c r="G10">
-        <v>2.076041904509772</v>
+        <v>2.09912837997917</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.28667439881629</v>
+        <v>12.92392418466527</v>
       </c>
       <c r="L10">
-        <v>6.52388858617078</v>
+        <v>6.541708761499132</v>
       </c>
       <c r="M10">
-        <v>13.23695527059686</v>
+        <v>10.78131389869836</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.79848668828759</v>
+        <v>18.93223911480404</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.43261459041731</v>
+        <v>16.63551511728933</v>
       </c>
       <c r="C11">
-        <v>12.4620815987656</v>
+        <v>8.124795894505397</v>
       </c>
       <c r="D11">
-        <v>5.49884695642124</v>
+        <v>5.952970249052352</v>
       </c>
       <c r="E11">
-        <v>7.178494202009571</v>
+        <v>8.272100349635068</v>
       </c>
       <c r="F11">
-        <v>45.47055902865156</v>
+        <v>23.97702245164731</v>
       </c>
       <c r="G11">
-        <v>2.06835157513115</v>
+        <v>2.095352011599108</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.97756319987238</v>
+        <v>13.31568872166683</v>
       </c>
       <c r="L11">
-        <v>6.599297479650448</v>
+        <v>6.616894835290547</v>
       </c>
       <c r="M11">
-        <v>13.73569646805892</v>
+        <v>11.02870456961317</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.65379197500562</v>
+        <v>19.00298407450378</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.75859670404866</v>
+        <v>16.84930253430214</v>
       </c>
       <c r="C12">
-        <v>12.59419065311775</v>
+        <v>8.122083957289963</v>
       </c>
       <c r="D12">
-        <v>5.4851481436304</v>
+        <v>5.980246040388339</v>
       </c>
       <c r="E12">
-        <v>7.174627624610316</v>
+        <v>8.276630023870124</v>
       </c>
       <c r="F12">
-        <v>45.93317010980946</v>
+        <v>24.0912617128962</v>
       </c>
       <c r="G12">
-        <v>2.065444873326872</v>
+        <v>2.093933149432754</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.23505524501702</v>
+        <v>13.4613091458436</v>
       </c>
       <c r="L12">
-        <v>6.628379267416141</v>
+        <v>6.645657551798492</v>
       </c>
       <c r="M12">
-        <v>13.92158234402196</v>
+        <v>11.12167782847189</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.9786000343143</v>
+        <v>19.03248096930302</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.68861339985855</v>
+        <v>16.80345874006073</v>
       </c>
       <c r="C13">
-        <v>12.56580663712859</v>
+        <v>8.122661090638017</v>
       </c>
       <c r="D13">
-        <v>5.488092730336843</v>
+        <v>5.974383784063272</v>
       </c>
       <c r="E13">
-        <v>7.175448066636409</v>
+        <v>8.275620687205761</v>
       </c>
       <c r="F13">
-        <v>45.83355233898935</v>
+        <v>24.06653826026587</v>
       </c>
       <c r="G13">
-        <v>2.066070705264133</v>
+        <v>2.094238242817245</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.17978054382114</v>
+        <v>13.43006865230244</v>
       </c>
       <c r="L13">
-        <v>6.622092293701792</v>
+        <v>6.639450191204353</v>
       </c>
       <c r="M13">
-        <v>13.88167879260926</v>
+        <v>11.10168680567875</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.90860451757465</v>
+        <v>19.02600591585548</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.45953404222239</v>
+        <v>16.65319336346264</v>
       </c>
       <c r="C14">
-        <v>12.47298106386175</v>
+        <v>8.124569663292698</v>
       </c>
       <c r="D14">
-        <v>5.497717390680265</v>
+        <v>5.955219670296557</v>
       </c>
       <c r="E14">
-        <v>7.178170581035954</v>
+        <v>8.272457822341389</v>
       </c>
       <c r="F14">
-        <v>45.50862468870903</v>
+        <v>23.98636693811896</v>
       </c>
       <c r="G14">
-        <v>2.06811235267927</v>
+        <v>2.095235061702061</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.99882898195945</v>
+        <v>13.32772374516831</v>
       </c>
       <c r="L14">
-        <v>6.601679408051907</v>
+        <v>6.619255380838032</v>
       </c>
       <c r="M14">
-        <v>13.75104831944921</v>
+        <v>11.03636806795867</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.68049520430418</v>
+        <v>19.00535583746633</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.31856027566033</v>
+        <v>16.56056734610226</v>
       </c>
       <c r="C15">
-        <v>12.4159221525134</v>
+        <v>8.125758958922267</v>
       </c>
       <c r="D15">
-        <v>5.503629324870061</v>
+        <v>5.943445921332343</v>
       </c>
       <c r="E15">
-        <v>7.179873909611387</v>
+        <v>8.270618947160843</v>
       </c>
       <c r="F15">
-        <v>45.30955500901263</v>
+        <v>23.93761077115198</v>
       </c>
       <c r="G15">
-        <v>2.069363512765877</v>
+        <v>2.095847072808064</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.88745824161135</v>
+        <v>13.26467878026395</v>
       </c>
       <c r="L15">
-        <v>6.589244973180604</v>
+        <v>6.606923114944771</v>
       </c>
       <c r="M15">
-        <v>13.67064959369162</v>
+        <v>10.99626445602687</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.54089398188312</v>
+        <v>18.99306329879702</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.50048277553125</v>
+        <v>16.02076854076054</v>
       </c>
       <c r="C16">
-        <v>12.08581026034975</v>
+        <v>8.1328822062478</v>
       </c>
       <c r="D16">
-        <v>5.537756559885475</v>
+        <v>5.87544412783153</v>
       </c>
       <c r="E16">
-        <v>7.190169993669686</v>
+        <v>8.261569714825693</v>
       </c>
       <c r="F16">
-        <v>44.1680647548022</v>
+        <v>23.66357864997289</v>
       </c>
       <c r="G16">
-        <v>2.076545463577379</v>
+        <v>2.099376779756578</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.24093497710819</v>
+        <v>12.89793903405782</v>
       </c>
       <c r="L16">
-        <v>6.5190330983366</v>
+        <v>6.536836519095857</v>
       </c>
       <c r="M16">
-        <v>13.20393787611809</v>
+        <v>10.76505056048215</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.742716070521</v>
+        <v>18.92798789214695</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.98934023178801</v>
+        <v>15.681545094543</v>
       </c>
       <c r="C17">
-        <v>11.88044813692339</v>
+        <v>8.137524346544067</v>
       </c>
       <c r="D17">
-        <v>5.558908874956625</v>
+        <v>5.833262161659177</v>
       </c>
       <c r="E17">
-        <v>7.196950884027059</v>
+        <v>8.257324248730473</v>
       </c>
       <c r="F17">
-        <v>43.46713434205102</v>
+        <v>23.50024692985986</v>
       </c>
       <c r="G17">
-        <v>2.080965226310947</v>
+        <v>2.101562860499323</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.83676076171924</v>
+        <v>12.66808910316323</v>
       </c>
       <c r="L17">
-        <v>6.476879021767417</v>
+        <v>6.494370902611671</v>
       </c>
       <c r="M17">
-        <v>12.93717909769813</v>
+        <v>10.62201360923052</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.25464173021482</v>
+        <v>18.89275609810349</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.6918726141447</v>
+        <v>15.48344718601147</v>
       </c>
       <c r="C18">
-        <v>11.76126213625863</v>
+        <v>8.140293495264537</v>
       </c>
       <c r="D18">
-        <v>5.571152796620549</v>
+        <v>5.808832956100394</v>
       </c>
       <c r="E18">
-        <v>7.201016958993746</v>
+        <v>8.255353467994576</v>
       </c>
       <c r="F18">
-        <v>43.06372991990118</v>
+        <v>23.40805293327371</v>
       </c>
       <c r="G18">
-        <v>2.083513633754834</v>
+        <v>2.102828093165695</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.60145947926043</v>
+        <v>12.53409792780064</v>
       </c>
       <c r="L18">
-        <v>6.452965623920107</v>
+        <v>6.470144106329877</v>
       </c>
       <c r="M18">
-        <v>12.82248164354529</v>
+        <v>10.53932502519075</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.97448562997072</v>
+        <v>18.87417532096048</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.59055326484833</v>
+        <v>15.41586015424244</v>
       </c>
       <c r="C19">
-        <v>11.72072280789534</v>
+        <v>8.141248017915569</v>
       </c>
       <c r="D19">
-        <v>5.57531156290625</v>
+        <v>5.800533278469551</v>
       </c>
       <c r="E19">
-        <v>7.202421714355946</v>
+        <v>8.254766273174848</v>
       </c>
       <c r="F19">
-        <v>42.92710210540179</v>
+        <v>23.37713759757457</v>
       </c>
       <c r="G19">
-        <v>2.084377666120595</v>
+        <v>2.103257851093217</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.52129923631544</v>
+        <v>12.48842398899892</v>
       </c>
       <c r="L19">
-        <v>6.444925614616537</v>
+        <v>6.461975717870419</v>
       </c>
       <c r="M19">
-        <v>12.78361922605086</v>
+        <v>10.51125854213358</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.87972737226346</v>
+        <v>18.86816955582394</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.04411020928793</v>
+        <v>15.71796459478405</v>
       </c>
       <c r="C20">
-        <v>11.90241931100898</v>
+        <v>8.137019904349895</v>
       </c>
       <c r="D20">
-        <v>5.556649098379229</v>
+        <v>5.837769898499285</v>
       </c>
       <c r="E20">
-        <v>7.196211772515795</v>
+        <v>8.257727230394545</v>
       </c>
       <c r="F20">
-        <v>43.54177529863421</v>
+        <v>23.51745260121585</v>
       </c>
       <c r="G20">
-        <v>2.080494111191913</v>
+        <v>2.101329340691695</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.88007757884349</v>
+        <v>12.69274206667605</v>
       </c>
       <c r="L20">
-        <v>6.48133187207476</v>
+        <v>6.498870994592691</v>
       </c>
       <c r="M20">
-        <v>12.95839350012509</v>
+        <v>10.63728385375012</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.30653882509284</v>
+        <v>18.89633143287986</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.52695653184352</v>
+        <v>16.69745157580765</v>
       </c>
       <c r="C21">
-        <v>12.5002878413981</v>
+        <v>8.124004845556163</v>
       </c>
       <c r="D21">
-        <v>5.494886931549517</v>
+        <v>5.960855984353743</v>
       </c>
       <c r="E21">
-        <v>7.17736344027177</v>
+        <v>8.273366261556523</v>
       </c>
       <c r="F21">
-        <v>45.60407242110374</v>
+        <v>24.00984200742677</v>
       </c>
       <c r="G21">
-        <v>2.067512555279953</v>
+        <v>2.094941975094554</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.05208951495361</v>
+        <v>13.35785905701296</v>
       </c>
       <c r="L21">
-        <v>6.607660744496411</v>
+        <v>6.62517926062332</v>
       </c>
       <c r="M21">
-        <v>13.78949740051599</v>
+        <v>11.05557345645453</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.74747079407852</v>
+        <v>19.01134680845345</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.4665476785035</v>
+        <v>17.31140902021385</v>
       </c>
       <c r="C22">
-        <v>12.88199540563786</v>
+        <v>8.116402050100344</v>
       </c>
       <c r="D22">
-        <v>5.455257362069189</v>
+        <v>6.03973511342179</v>
       </c>
       <c r="E22">
-        <v>7.166629907247031</v>
+        <v>8.28797077652581</v>
       </c>
       <c r="F22">
-        <v>46.94999132875719</v>
+        <v>24.34734607010748</v>
       </c>
       <c r="G22">
-        <v>2.059058104673171</v>
+        <v>2.090832160177551</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.7940740044806</v>
+        <v>13.77662981666411</v>
       </c>
       <c r="L22">
-        <v>6.693300264708681</v>
+        <v>6.709422860866741</v>
       </c>
       <c r="M22">
-        <v>14.32515084761145</v>
+        <v>11.32479859427612</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.69464111563413</v>
+        <v>19.10235295031293</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.96770037226791</v>
+        <v>16.98610577508572</v>
       </c>
       <c r="C23">
-        <v>12.67907128809083</v>
+        <v>8.12037609125681</v>
       </c>
       <c r="D23">
-        <v>5.476338557976131</v>
+        <v>5.997782468491336</v>
       </c>
       <c r="E23">
-        <v>7.172207941433337</v>
+        <v>8.27976579197159</v>
       </c>
       <c r="F23">
-        <v>46.23179223390331</v>
+        <v>24.16577245344298</v>
       </c>
       <c r="G23">
-        <v>2.063569040524553</v>
+        <v>2.093019990787095</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.40019567319538</v>
+        <v>13.55457952409459</v>
       </c>
       <c r="L23">
-        <v>6.647305128939844</v>
+        <v>6.664308860106338</v>
       </c>
       <c r="M23">
-        <v>14.04080010781437</v>
+        <v>11.18150691885242</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.18859229601294</v>
+        <v>19.05229153851144</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.01935994573342</v>
+        <v>15.70150891732209</v>
       </c>
       <c r="C24">
-        <v>11.89248963828189</v>
+        <v>8.137247650412331</v>
       </c>
       <c r="D24">
-        <v>5.557670484738804</v>
+        <v>5.835732504962502</v>
       </c>
       <c r="E24">
-        <v>7.196545403773919</v>
+        <v>8.257543580538572</v>
       </c>
       <c r="F24">
-        <v>43.50803146305537</v>
+        <v>23.50966859981553</v>
       </c>
       <c r="G24">
-        <v>2.080707078925944</v>
+        <v>2.101434888695211</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.86050320424162</v>
+        <v>12.68160221583812</v>
       </c>
       <c r="L24">
-        <v>6.479317738111959</v>
+        <v>6.496835918945457</v>
       </c>
       <c r="M24">
-        <v>12.948803154334</v>
+        <v>10.63038158752573</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.28307476681471</v>
+        <v>18.8947098178908</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.78442904604925</v>
+        <v>14.20149969988779</v>
       </c>
       <c r="C25">
-        <v>11.00311647178681</v>
+        <v>8.159225998717549</v>
       </c>
       <c r="D25">
-        <v>5.648360221823862</v>
+        <v>5.654594407394702</v>
       </c>
       <c r="E25">
-        <v>7.22909273636939</v>
+        <v>8.25147514641937</v>
       </c>
       <c r="F25">
-        <v>40.56115111774152</v>
+        <v>22.86874022707116</v>
       </c>
       <c r="G25">
-        <v>2.099444938289268</v>
+        <v>2.11081481649153</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.09089155245854</v>
+        <v>11.67169225246742</v>
       </c>
       <c r="L25">
-        <v>6.31078334961888</v>
+        <v>6.323815101663125</v>
       </c>
       <c r="M25">
-        <v>12.10947441903647</v>
+        <v>10.02029638882347</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.24980205114788</v>
+        <v>18.78858641212641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.99647172854572</v>
+        <v>12.99816055428891</v>
       </c>
       <c r="C2">
-        <v>8.178564876688402</v>
+        <v>9.020315801665751</v>
       </c>
       <c r="D2">
-        <v>5.516204990210856</v>
+        <v>5.669724153089907</v>
       </c>
       <c r="E2">
-        <v>8.261391603913889</v>
+        <v>8.257166454559878</v>
       </c>
       <c r="F2">
-        <v>22.45312880198251</v>
+        <v>17.51495863220557</v>
       </c>
       <c r="G2">
-        <v>2.118009224005797</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.6563924814158</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.227787462023281</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.11525035324302</v>
       </c>
       <c r="K2">
-        <v>10.86979578855075</v>
+        <v>15.25785537281507</v>
       </c>
       <c r="L2">
-        <v>6.203339793693086</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.560531046349743</v>
+        <v>11.46521185089417</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.26178783057468</v>
       </c>
       <c r="O2">
-        <v>18.7606823515178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.365762988318274</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.65086657930265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.11599270660482</v>
+        <v>12.17049890405412</v>
       </c>
       <c r="C3">
-        <v>8.193599423724402</v>
+        <v>8.912228447793117</v>
       </c>
       <c r="D3">
-        <v>5.419537255097535</v>
+        <v>5.456034615937535</v>
       </c>
       <c r="E3">
-        <v>8.276582726181516</v>
+        <v>8.276578879262818</v>
       </c>
       <c r="F3">
-        <v>22.20576402062209</v>
+        <v>17.38780409047841</v>
       </c>
       <c r="G3">
-        <v>2.123077243896433</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>21.61608165337346</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.382191713643648</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.189055213458035</v>
       </c>
       <c r="K3">
-        <v>10.29051503474835</v>
+        <v>15.41608651430678</v>
       </c>
       <c r="L3">
-        <v>6.126184775260887</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.244135629937663</v>
+        <v>10.91839327618923</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.18403408855893</v>
       </c>
       <c r="O3">
-        <v>18.77071901474089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.008704286595817</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.73603144003932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.54354681102896</v>
+        <v>11.63115720687732</v>
       </c>
       <c r="C4">
-        <v>8.203770268606613</v>
+        <v>8.845835070958211</v>
       </c>
       <c r="D4">
-        <v>5.358855123863314</v>
+        <v>5.320238728636049</v>
       </c>
       <c r="E4">
-        <v>8.289923488637399</v>
+        <v>8.291140144267507</v>
       </c>
       <c r="F4">
-        <v>22.07043721919962</v>
+        <v>17.3192987178064</v>
       </c>
       <c r="G4">
-        <v>2.126287787823721</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>21.6057074638388</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.481296523814061</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.237504913434391</v>
       </c>
       <c r="K4">
-        <v>9.917470902041886</v>
+        <v>15.51825153640888</v>
       </c>
       <c r="L4">
-        <v>6.081080928955731</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.048191120200102</v>
+        <v>10.56798708570177</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.139001255003111</v>
       </c>
       <c r="O4">
-        <v>18.79036179217246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.784042485238007</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.79526499842187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.30221714128354</v>
+        <v>11.40121800395008</v>
       </c>
       <c r="C5">
-        <v>8.208149682821674</v>
+        <v>8.821817807663802</v>
       </c>
       <c r="D5">
-        <v>5.333807859573766</v>
+        <v>5.265213182907456</v>
       </c>
       <c r="E5">
-        <v>8.296344971963405</v>
+        <v>8.296068579925617</v>
       </c>
       <c r="F5">
-        <v>22.0193905794051</v>
+        <v>17.28742116538881</v>
       </c>
       <c r="G5">
-        <v>2.127621486952247</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>21.5942898317275</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.525405835310329</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.256338336634562</v>
       </c>
       <c r="K5">
-        <v>9.761150210457153</v>
+        <v>15.55673601701388</v>
       </c>
       <c r="L5">
-        <v>6.063279031131614</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>8.968035973452977</v>
+        <v>10.42318962247667</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.121989346899234</v>
       </c>
       <c r="O5">
-        <v>18.80163768104899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.691063045073841</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.8168260817216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26165668537986</v>
+        <v>11.35972993018281</v>
       </c>
       <c r="C6">
-        <v>8.208891015025781</v>
+        <v>8.821588859140517</v>
       </c>
       <c r="D6">
-        <v>5.329629980054319</v>
+        <v>5.257754798080107</v>
       </c>
       <c r="E6">
-        <v>8.297470044193282</v>
+        <v>8.294896817720124</v>
       </c>
       <c r="F6">
-        <v>22.01115990283804</v>
+        <v>17.27452276306965</v>
       </c>
       <c r="G6">
-        <v>2.127844494801439</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>21.57953565506552</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.536174570376074</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.257454691388457</v>
       </c>
       <c r="K6">
-        <v>9.734935646100727</v>
+        <v>15.55784484411602</v>
       </c>
       <c r="L6">
-        <v>6.060358164929038</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8.954711321870546</v>
+        <v>10.40086615182743</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.120000214484507</v>
       </c>
       <c r="O6">
-        <v>18.80370415448803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.675315640560044</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.81528857239401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.54032482808967</v>
+        <v>11.62052879012245</v>
       </c>
       <c r="C7">
-        <v>8.203828382500541</v>
+        <v>8.85580747409743</v>
       </c>
       <c r="D7">
-        <v>5.358518598085634</v>
+        <v>5.324222772352196</v>
       </c>
       <c r="E7">
-        <v>8.290006134484774</v>
+        <v>8.285670020176021</v>
       </c>
       <c r="F7">
-        <v>22.06973227644734</v>
+        <v>17.29776837580211</v>
       </c>
       <c r="G7">
-        <v>2.126305671106048</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>21.56990710607431</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.490825786807101</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.232144524545969</v>
       </c>
       <c r="K7">
-        <v>9.915380028877433</v>
+        <v>15.50413880576921</v>
       </c>
       <c r="L7">
-        <v>6.080838495720352</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.047111200648015</v>
+        <v>10.57126380336491</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.140925905056131</v>
       </c>
       <c r="O7">
-        <v>18.79050077365001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.782140272051745</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.78130513474395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.69945825705106</v>
+        <v>12.70999709916204</v>
       </c>
       <c r="C8">
-        <v>8.183552795966825</v>
+        <v>8.996859798557363</v>
       </c>
       <c r="D8">
-        <v>5.4831583338424</v>
+        <v>5.603069062478972</v>
       </c>
       <c r="E8">
-        <v>8.265781917440664</v>
+        <v>8.256025183722288</v>
       </c>
       <c r="F8">
-        <v>22.36436659718962</v>
+        <v>17.44157018693206</v>
       </c>
       <c r="G8">
-        <v>2.119736513969897</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>21.59263501454546</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.291546189172041</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.132643332839461</v>
       </c>
       <c r="K8">
-        <v>10.67369681137227</v>
+        <v>15.29202028230554</v>
       </c>
       <c r="L8">
-        <v>6.176270536608578</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.451852297987202</v>
+        <v>11.28637386172353</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.237226072197796</v>
       </c>
       <c r="O8">
-        <v>18.76127390023717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.242974084277812</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.65995875135465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.72225812987952</v>
+        <v>14.61174786975529</v>
       </c>
       <c r="C9">
-        <v>8.151326388342635</v>
+        <v>9.254746645664861</v>
       </c>
       <c r="D9">
-        <v>5.716421735817045</v>
+        <v>6.103814314589486</v>
       </c>
       <c r="E9">
-        <v>8.25121751769796</v>
+        <v>8.229133670032738</v>
       </c>
       <c r="F9">
-        <v>23.07580330928546</v>
+        <v>17.83782032405392</v>
       </c>
       <c r="G9">
-        <v>2.107612187749664</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>21.81964061252445</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.919815405773912</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.973114921597212</v>
       </c>
       <c r="K9">
-        <v>12.0209847110671</v>
+        <v>14.94313953367378</v>
       </c>
       <c r="L9">
-        <v>6.381046923167364</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.2276576505671</v>
+        <v>12.56000726555594</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.443273670421055</v>
       </c>
       <c r="O9">
-        <v>18.81621518142924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.09978808614657</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.50504002711543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.05907306011277</v>
+        <v>15.85654835697589</v>
       </c>
       <c r="C10">
-        <v>8.132366002938614</v>
+        <v>9.449996077878163</v>
       </c>
       <c r="D10">
-        <v>5.880234451668165</v>
+        <v>6.448913911815469</v>
       </c>
       <c r="E10">
-        <v>8.262118626009169</v>
+        <v>8.220358137088731</v>
       </c>
       <c r="F10">
-        <v>23.68245351988166</v>
+        <v>18.16728666355997</v>
       </c>
       <c r="G10">
-        <v>2.09912837997917</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>22.0485856795199</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.672386663056919</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.869878022405924</v>
       </c>
       <c r="K10">
-        <v>12.92392418466527</v>
+        <v>14.70634090459643</v>
       </c>
       <c r="L10">
-        <v>6.541708761499132</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.78131389869836</v>
+        <v>13.42115358825869</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.607678107049236</v>
       </c>
       <c r="O10">
-        <v>18.93223911480404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.69388629736562</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.4230024351138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.63551511728933</v>
+        <v>16.38179551630435</v>
       </c>
       <c r="C11">
-        <v>8.124795894505397</v>
+        <v>9.556584879860647</v>
       </c>
       <c r="D11">
-        <v>5.952970249052352</v>
+        <v>6.606780208863546</v>
       </c>
       <c r="E11">
-        <v>8.272100349635068</v>
+        <v>8.210660996888542</v>
       </c>
       <c r="F11">
-        <v>23.97702245164731</v>
+        <v>18.29604519426418</v>
       </c>
       <c r="G11">
-        <v>2.095352011599108</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>22.11612359867196</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.581448277821143</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.817730716023215</v>
       </c>
       <c r="K11">
-        <v>13.31568872166683</v>
+        <v>14.58087595752496</v>
       </c>
       <c r="L11">
-        <v>6.616894835290547</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.02870456961317</v>
+        <v>13.80261447867627</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.688090392688966</v>
       </c>
       <c r="O11">
-        <v>19.00298407450378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.95450889950227</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.37198016814191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.84930253430214</v>
+        <v>16.58105380917133</v>
       </c>
       <c r="C12">
-        <v>8.122083957289963</v>
+        <v>9.587663606659396</v>
       </c>
       <c r="D12">
-        <v>5.980246040388339</v>
+        <v>6.662145816450312</v>
       </c>
       <c r="E12">
-        <v>8.276630023870124</v>
+        <v>8.212145946127611</v>
       </c>
       <c r="F12">
-        <v>24.0912617128962</v>
+        <v>18.3634786177638</v>
       </c>
       <c r="G12">
-        <v>2.093933149432754</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>22.17406665627655</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.539074071378694</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.803397838810717</v>
       </c>
       <c r="K12">
-        <v>13.4613091458436</v>
+        <v>14.54704287539005</v>
       </c>
       <c r="L12">
-        <v>6.645657551798492</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.12167782847189</v>
+        <v>13.9407590171804</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.717147361824773</v>
       </c>
       <c r="O12">
-        <v>19.03248096930302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.05247209237208</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.36628803857896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.80345874006073</v>
+        <v>16.53930971424417</v>
       </c>
       <c r="C13">
-        <v>8.122661090638017</v>
+        <v>9.579085943525328</v>
       </c>
       <c r="D13">
-        <v>5.974383784063272</v>
+        <v>6.64955237721623</v>
       </c>
       <c r="E13">
-        <v>8.275620687205761</v>
+        <v>8.212748220575014</v>
       </c>
       <c r="F13">
-        <v>24.06653826026587</v>
+        <v>18.35229621222661</v>
       </c>
       <c r="G13">
-        <v>2.094238242817245</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>22.16736889478118</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.546300094098185</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.807429470935721</v>
       </c>
       <c r="K13">
-        <v>13.43006865230244</v>
+        <v>14.55685098777681</v>
       </c>
       <c r="L13">
-        <v>6.639450191204353</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.10168680567875</v>
+        <v>13.91037143848721</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.710531829265898</v>
       </c>
       <c r="O13">
-        <v>19.02600591585548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.0315467757921</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.36990506845044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.65319336346264</v>
+        <v>16.398694023952</v>
       </c>
       <c r="C14">
-        <v>8.124569663292698</v>
+        <v>9.558340303462014</v>
       </c>
       <c r="D14">
-        <v>5.955219670296557</v>
+        <v>6.611050257126365</v>
       </c>
       <c r="E14">
-        <v>8.272457822341389</v>
+        <v>8.21117464189664</v>
       </c>
       <c r="F14">
-        <v>23.98636693811896</v>
+        <v>18.30301464647736</v>
       </c>
       <c r="G14">
-        <v>2.095235061702061</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>22.12334922808309</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.577151932305981</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.816952236547676</v>
       </c>
       <c r="K14">
-        <v>13.32772374516831</v>
+        <v>14.57916187359761</v>
       </c>
       <c r="L14">
-        <v>6.619255380838032</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.03636806795867</v>
+        <v>13.81371065515936</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.690328114848744</v>
       </c>
       <c r="O14">
-        <v>19.00535583746633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.96264332581307</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.37252663603674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.56056734610226</v>
+        <v>16.31003441158144</v>
       </c>
       <c r="C15">
-        <v>8.125758958922267</v>
+        <v>9.549357212367832</v>
       </c>
       <c r="D15">
-        <v>5.943445921332343</v>
+        <v>6.588762644596017</v>
       </c>
       <c r="E15">
-        <v>8.270618947160843</v>
+        <v>8.208412255682648</v>
       </c>
       <c r="F15">
-        <v>23.93761077115198</v>
+        <v>18.26627687334281</v>
       </c>
       <c r="G15">
-        <v>2.095847072808064</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>22.08506809899529</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.5998816204278</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.820950120774704</v>
       </c>
       <c r="K15">
-        <v>13.26467878026395</v>
+        <v>14.58791139299982</v>
       </c>
       <c r="L15">
-        <v>6.606923114944771</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.99626445602687</v>
+        <v>13.75566513701246</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.678675769598724</v>
       </c>
       <c r="O15">
-        <v>18.99306329879702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.9200414807116</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.36947952539519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.02076854076054</v>
+        <v>15.80493078956781</v>
       </c>
       <c r="C16">
-        <v>8.1328822062478</v>
+        <v>9.474229265350226</v>
       </c>
       <c r="D16">
-        <v>5.87544412783153</v>
+        <v>6.45048039179171</v>
       </c>
       <c r="E16">
-        <v>8.261569714825693</v>
+        <v>8.205353016189743</v>
       </c>
       <c r="F16">
-        <v>23.66357864997289</v>
+        <v>18.10172499460602</v>
       </c>
       <c r="G16">
-        <v>2.099376779756578</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>21.94550071668962</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.707867912911445</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.857241525492904</v>
       </c>
       <c r="K16">
-        <v>12.89793903405782</v>
+        <v>14.67218115873525</v>
       </c>
       <c r="L16">
-        <v>6.536836519095857</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.76505056048215</v>
+        <v>13.40862736454625</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.608252397185625</v>
       </c>
       <c r="O16">
-        <v>18.92798789214695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.67476861302051</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.38568385843517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.681545094543</v>
+        <v>15.48684410646772</v>
       </c>
       <c r="C17">
-        <v>8.137524346544067</v>
+        <v>9.428077905241793</v>
       </c>
       <c r="D17">
-        <v>5.833262161659177</v>
+        <v>6.364160864174993</v>
       </c>
       <c r="E17">
-        <v>8.257324248730473</v>
+        <v>8.204341340528734</v>
       </c>
       <c r="F17">
-        <v>23.50024692985986</v>
+        <v>18.00367536622474</v>
       </c>
       <c r="G17">
-        <v>2.101562860499323</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>21.86501781255614</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.775341532774993</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.880590136371737</v>
       </c>
       <c r="K17">
-        <v>12.66808910316323</v>
+        <v>14.72571093509071</v>
       </c>
       <c r="L17">
-        <v>6.494370902611671</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.62201360923052</v>
+        <v>13.19128869748602</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.565646466939293</v>
       </c>
       <c r="O17">
-        <v>18.89275609810349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.52206262071157</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.39821295341441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.48344718601147</v>
+        <v>15.30605222940322</v>
       </c>
       <c r="C18">
-        <v>8.140293495264537</v>
+        <v>9.391963147422654</v>
       </c>
       <c r="D18">
-        <v>5.808832956100394</v>
+        <v>6.310270347452564</v>
       </c>
       <c r="E18">
-        <v>8.255353467994576</v>
+        <v>8.208835197293483</v>
       </c>
       <c r="F18">
-        <v>23.40805293327371</v>
+        <v>17.96588468974882</v>
       </c>
       <c r="G18">
-        <v>2.102828093165695</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>21.8507810873265</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.804911590958561</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.899287421754142</v>
       </c>
       <c r="K18">
-        <v>12.53409792780064</v>
+        <v>14.76996318644653</v>
       </c>
       <c r="L18">
-        <v>6.470144106329877</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.53932502519075</v>
+        <v>13.06071050144164</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.539591875082032</v>
       </c>
       <c r="O18">
-        <v>18.87417532096048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.43401092097486</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.41872127729036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.41586015424244</v>
+        <v>15.24032125392326</v>
       </c>
       <c r="C19">
-        <v>8.141248017915569</v>
+        <v>9.387083230709026</v>
       </c>
       <c r="D19">
-        <v>5.800533278469551</v>
+        <v>6.294782437865698</v>
       </c>
       <c r="E19">
-        <v>8.254766273174848</v>
+        <v>8.206737733647209</v>
       </c>
       <c r="F19">
-        <v>23.37713759757457</v>
+        <v>17.93975297004587</v>
       </c>
       <c r="G19">
-        <v>2.103257851093217</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>21.82299847153187</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.822397958903571</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.901921582247221</v>
       </c>
       <c r="K19">
-        <v>12.48842398899892</v>
+        <v>14.77517567717889</v>
       </c>
       <c r="L19">
-        <v>6.461975717870419</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.51125854213358</v>
+        <v>13.01926236830496</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.532175565921014</v>
       </c>
       <c r="O19">
-        <v>18.86816955582394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.40361449615835</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.41627744763946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.71796459478405</v>
+        <v>15.52142109062756</v>
       </c>
       <c r="C20">
-        <v>8.137019904349895</v>
+        <v>9.432243395495302</v>
       </c>
       <c r="D20">
-        <v>5.837769898499285</v>
+        <v>6.373117318184882</v>
       </c>
       <c r="E20">
-        <v>8.257727230394545</v>
+        <v>8.204789712300785</v>
       </c>
       <c r="F20">
-        <v>23.51745260121585</v>
+        <v>18.01537386346751</v>
       </c>
       <c r="G20">
-        <v>2.101329340691695</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>21.87575500454832</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.767338767032453</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.878446759851704</v>
       </c>
       <c r="K20">
-        <v>12.69274206667605</v>
+        <v>14.72094942057769</v>
       </c>
       <c r="L20">
-        <v>6.498870994592691</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.63728385375012</v>
+        <v>13.2142855216654</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.570020297024621</v>
       </c>
       <c r="O20">
-        <v>18.89633143287986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.53844739904163</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.39775309202743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.69745157580765</v>
+        <v>16.43468283295028</v>
       </c>
       <c r="C21">
-        <v>8.124004845556163</v>
+        <v>9.575026290557643</v>
       </c>
       <c r="D21">
-        <v>5.960855984353743</v>
+        <v>6.626357875810868</v>
       </c>
       <c r="E21">
-        <v>8.273366261556523</v>
+        <v>8.206337297379463</v>
       </c>
       <c r="F21">
-        <v>24.00984200742677</v>
+        <v>18.29829941140421</v>
       </c>
       <c r="G21">
-        <v>2.094941975094554</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>22.10304774966113</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.578846031917776</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.80869373610078</v>
       </c>
       <c r="K21">
-        <v>13.35785905701296</v>
+        <v>14.55821732747625</v>
       </c>
       <c r="L21">
-        <v>6.62517926062332</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.05557345645453</v>
+        <v>13.84637716061659</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.69818147614068</v>
       </c>
       <c r="O21">
-        <v>19.01134680845345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>10.98227687012577</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.35795112761808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.31140902021385</v>
+        <v>17.01165669083235</v>
       </c>
       <c r="C22">
-        <v>8.116402050100344</v>
+        <v>9.654701105885334</v>
       </c>
       <c r="D22">
-        <v>6.03973511342179</v>
+        <v>6.781881917749925</v>
       </c>
       <c r="E22">
-        <v>8.28797077652581</v>
+        <v>8.216938638340961</v>
       </c>
       <c r="F22">
-        <v>24.34734607010748</v>
+        <v>18.51697865756315</v>
       </c>
       <c r="G22">
-        <v>2.090832160177551</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>22.31080037456023</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.555151753561145</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.77367944932144</v>
       </c>
       <c r="K22">
-        <v>13.77662981666411</v>
+        <v>14.4763029528526</v>
       </c>
       <c r="L22">
-        <v>6.709422860866741</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.32479859427612</v>
+        <v>14.239495611906</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.781383651249046</v>
       </c>
       <c r="O22">
-        <v>19.10235295031293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.2862017699894</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.3581783855148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.98610577508572</v>
+        <v>16.71265022715372</v>
       </c>
       <c r="C23">
-        <v>8.12037609125681</v>
+        <v>9.599472283131915</v>
       </c>
       <c r="D23">
-        <v>5.997782468491336</v>
+        <v>6.694570464144749</v>
       </c>
       <c r="E23">
-        <v>8.27976579197159</v>
+        <v>8.217381989031313</v>
       </c>
       <c r="F23">
-        <v>24.16577245344298</v>
+        <v>18.42239658637811</v>
       </c>
       <c r="G23">
-        <v>2.093019990787095</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>22.23818118108752</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.50383524181008</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.798588786677454</v>
       </c>
       <c r="K23">
-        <v>13.55457952409459</v>
+        <v>14.53677943680934</v>
       </c>
       <c r="L23">
-        <v>6.664308860106338</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.18150691885242</v>
+        <v>14.02599734302836</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.734496213328633</v>
       </c>
       <c r="O23">
-        <v>19.05229153851144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.11586051879903</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.37381781105556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.70150891732209</v>
+        <v>15.51666543291428</v>
       </c>
       <c r="C24">
-        <v>8.137247650412331</v>
+        <v>9.410265514544449</v>
       </c>
       <c r="D24">
-        <v>5.835732504962502</v>
+        <v>6.36129219834681</v>
       </c>
       <c r="E24">
-        <v>8.257543580538572</v>
+        <v>8.214659915296421</v>
       </c>
       <c r="F24">
-        <v>23.50966859981553</v>
+        <v>18.04707029961356</v>
       </c>
       <c r="G24">
-        <v>2.101434888695211</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>21.9346493192813</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.751312519810576</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.889743385168913</v>
       </c>
       <c r="K24">
-        <v>12.68160221583812</v>
+        <v>14.7502613925515</v>
       </c>
       <c r="L24">
-        <v>6.496835918945457</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.63038158752573</v>
+        <v>13.19560789093006</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.564307836920716</v>
       </c>
       <c r="O24">
-        <v>18.8947098178908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.53226975774095</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.42414731951644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.20149969988779</v>
+        <v>14.11217900212482</v>
       </c>
       <c r="C25">
-        <v>8.159225998717549</v>
+        <v>9.204181319741437</v>
       </c>
       <c r="D25">
-        <v>5.654594407394702</v>
+        <v>5.980497870845628</v>
       </c>
       <c r="E25">
-        <v>8.25147514641937</v>
+        <v>8.224187749415297</v>
       </c>
       <c r="F25">
-        <v>22.86874022707116</v>
+        <v>17.68541799935245</v>
       </c>
       <c r="G25">
-        <v>2.11081481649153</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>21.68174292301804</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.033425017852318</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.003358740459115</v>
       </c>
       <c r="K25">
-        <v>11.67169225246742</v>
+        <v>15.0065672217493</v>
       </c>
       <c r="L25">
-        <v>6.323815101663125</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.02029638882347</v>
+        <v>12.2372211665682</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.38908923650335</v>
       </c>
       <c r="O25">
-        <v>18.78858641212641</v>
+        <v>9.87258861624025</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.51484106603301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.99816055428891</v>
+        <v>12.9869853324862</v>
       </c>
       <c r="C2">
-        <v>9.020315801665751</v>
+        <v>8.705627417395576</v>
       </c>
       <c r="D2">
-        <v>5.669724153089907</v>
+        <v>5.693987722922726</v>
       </c>
       <c r="E2">
-        <v>8.257166454559878</v>
+        <v>8.03100849174586</v>
       </c>
       <c r="F2">
-        <v>17.51495863220557</v>
+        <v>17.02809097734583</v>
       </c>
       <c r="G2">
-        <v>21.6563924814158</v>
+        <v>20.26406465413547</v>
       </c>
       <c r="I2">
-        <v>3.227787462023281</v>
+        <v>3.086182557957249</v>
       </c>
       <c r="J2">
-        <v>9.11525035324302</v>
+        <v>9.276977687362395</v>
       </c>
       <c r="K2">
-        <v>15.25785537281507</v>
+        <v>14.70640833368111</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.08770098254955</v>
       </c>
       <c r="M2">
-        <v>11.46521185089417</v>
+        <v>9.633342737018401</v>
       </c>
       <c r="N2">
-        <v>6.26178783057468</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.365762988318274</v>
+        <v>11.54684232499613</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.331491096511704</v>
       </c>
       <c r="Q2">
-        <v>14.65086657930265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.313047219463444</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.2496490227342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.17049890405412</v>
+        <v>12.18682217307107</v>
       </c>
       <c r="C3">
-        <v>8.912228447793117</v>
+        <v>8.526198021723156</v>
       </c>
       <c r="D3">
-        <v>5.456034615937535</v>
+        <v>5.460192451664899</v>
       </c>
       <c r="E3">
-        <v>8.276578879262818</v>
+        <v>8.058019127704842</v>
       </c>
       <c r="F3">
-        <v>17.38780409047841</v>
+        <v>16.93498011996985</v>
       </c>
       <c r="G3">
-        <v>21.61608165337346</v>
+        <v>20.32016791617139</v>
       </c>
       <c r="I3">
-        <v>3.382191713643648</v>
+        <v>3.223357312996224</v>
       </c>
       <c r="J3">
-        <v>9.189055213458035</v>
+        <v>9.322288343664452</v>
       </c>
       <c r="K3">
-        <v>15.41608651430678</v>
+        <v>14.87739693489438</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.26343914040165</v>
       </c>
       <c r="M3">
-        <v>10.91839327618923</v>
+        <v>9.749888825202802</v>
       </c>
       <c r="N3">
-        <v>6.18403408855893</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.008704286595817</v>
+        <v>10.98851456147001</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.250690892031097</v>
       </c>
       <c r="Q3">
-        <v>14.73603144003932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>8.95047534784908</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.35338276258869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.63115720687732</v>
+        <v>11.66573957189027</v>
       </c>
       <c r="C4">
-        <v>8.845835070958211</v>
+        <v>8.415927005080192</v>
       </c>
       <c r="D4">
-        <v>5.320238728636049</v>
+        <v>5.311502489553586</v>
       </c>
       <c r="E4">
-        <v>8.291140144267507</v>
+        <v>8.076872905752005</v>
       </c>
       <c r="F4">
-        <v>17.3192987178064</v>
+        <v>16.88593636670648</v>
       </c>
       <c r="G4">
-        <v>21.6057074638388</v>
+        <v>20.36992730267519</v>
       </c>
       <c r="I4">
-        <v>3.481296523814061</v>
+        <v>3.311717179576244</v>
       </c>
       <c r="J4">
-        <v>9.237504913434391</v>
+        <v>9.351589139384593</v>
       </c>
       <c r="K4">
-        <v>15.51825153640888</v>
+        <v>14.98613688113662</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.37449091853913</v>
       </c>
       <c r="M4">
-        <v>10.56798708570177</v>
+        <v>9.838978870707285</v>
       </c>
       <c r="N4">
-        <v>6.139001255003111</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.784042485238007</v>
+        <v>10.63086704388415</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.203904446579172</v>
       </c>
       <c r="Q4">
-        <v>14.79526499842187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.721774602155095</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.42277682204689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.40121800395008</v>
+        <v>11.44365096188674</v>
       </c>
       <c r="C5">
-        <v>8.821817807663802</v>
+        <v>8.374692041522849</v>
       </c>
       <c r="D5">
-        <v>5.265213182907456</v>
+        <v>5.251109334782903</v>
       </c>
       <c r="E5">
-        <v>8.296068579925617</v>
+        <v>8.083499229447193</v>
       </c>
       <c r="F5">
-        <v>17.28742116538881</v>
+        <v>16.8617094268225</v>
       </c>
       <c r="G5">
-        <v>21.5942898317275</v>
+        <v>20.38330463877628</v>
       </c>
       <c r="I5">
-        <v>3.525405835310329</v>
+        <v>3.351862832117645</v>
       </c>
       <c r="J5">
-        <v>9.256338336634562</v>
+        <v>9.362216110588745</v>
       </c>
       <c r="K5">
-        <v>15.55673601701388</v>
+        <v>15.02716741873172</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.41626159397734</v>
       </c>
       <c r="M5">
-        <v>10.42318962247667</v>
+        <v>9.87756025878768</v>
       </c>
       <c r="N5">
-        <v>6.121989346899234</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.691063045073841</v>
+        <v>10.483077698082</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.186198150077823</v>
       </c>
       <c r="Q5">
-        <v>14.8168260817216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.626982168758952</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.44827365092001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.35972993018281</v>
+        <v>11.40354675945129</v>
       </c>
       <c r="C6">
-        <v>8.821588859140517</v>
+        <v>8.372410434627341</v>
       </c>
       <c r="D6">
-        <v>5.257754798080107</v>
+        <v>5.242771469223099</v>
       </c>
       <c r="E6">
-        <v>8.294896817720124</v>
+        <v>8.082654754108805</v>
       </c>
       <c r="F6">
-        <v>17.27452276306965</v>
+        <v>16.85017294599253</v>
       </c>
       <c r="G6">
-        <v>21.57953565506552</v>
+        <v>20.37282009278262</v>
       </c>
       <c r="I6">
-        <v>3.536174570376074</v>
+        <v>3.362575137198696</v>
       </c>
       <c r="J6">
-        <v>9.257454691388457</v>
+        <v>9.361947907859552</v>
       </c>
       <c r="K6">
-        <v>15.55784484411602</v>
+        <v>15.02889286894955</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.41802827722534</v>
       </c>
       <c r="M6">
-        <v>10.40086615182743</v>
+        <v>9.8817333477938</v>
       </c>
       <c r="N6">
-        <v>6.120000214484507</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.675315640560044</v>
+        <v>10.4602445427857</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.184081435518666</v>
       </c>
       <c r="Q6">
-        <v>14.81528857239401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.61092170039046</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.44749396028959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.62052879012245</v>
+        <v>11.65601913416151</v>
       </c>
       <c r="C7">
-        <v>8.85580747409743</v>
+        <v>8.425535709485029</v>
       </c>
       <c r="D7">
-        <v>5.324222772352196</v>
+        <v>5.318394098019682</v>
       </c>
       <c r="E7">
-        <v>8.285670020176021</v>
+        <v>8.071940870389954</v>
       </c>
       <c r="F7">
-        <v>17.29776837580211</v>
+        <v>16.85278088447619</v>
       </c>
       <c r="G7">
-        <v>21.56990710607431</v>
+        <v>20.39981985967266</v>
       </c>
       <c r="I7">
-        <v>3.490825786807101</v>
+        <v>3.323257733133094</v>
       </c>
       <c r="J7">
-        <v>9.232144524545969</v>
+        <v>9.317824364312848</v>
       </c>
       <c r="K7">
-        <v>15.50413880576921</v>
+        <v>14.96745874094742</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.35603316075276</v>
       </c>
       <c r="M7">
-        <v>10.57126380336491</v>
+        <v>9.829577659492921</v>
       </c>
       <c r="N7">
-        <v>6.140925905056131</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.782140272051745</v>
+        <v>10.63295062851717</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.205559618050881</v>
       </c>
       <c r="Q7">
-        <v>14.78130513474395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.7201077820938</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.4012839956011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.70999709916204</v>
+        <v>12.71023309334698</v>
       </c>
       <c r="C8">
-        <v>8.996859798557363</v>
+        <v>8.653010348953476</v>
       </c>
       <c r="D8">
-        <v>5.603069062478972</v>
+        <v>5.629968882536396</v>
       </c>
       <c r="E8">
-        <v>8.256025183722288</v>
+        <v>8.034098075644259</v>
       </c>
       <c r="F8">
-        <v>17.44157018693206</v>
+        <v>16.92770061282209</v>
       </c>
       <c r="G8">
-        <v>21.59263501454546</v>
+        <v>20.45143268182739</v>
       </c>
       <c r="I8">
-        <v>3.291546189172041</v>
+        <v>3.147529602997999</v>
       </c>
       <c r="J8">
-        <v>9.132643332839461</v>
+        <v>9.192908399684223</v>
       </c>
       <c r="K8">
-        <v>15.29202028230554</v>
+        <v>14.72915570807783</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.11567985677896</v>
       </c>
       <c r="M8">
-        <v>11.28637386172353</v>
+        <v>9.647900677700925</v>
       </c>
       <c r="N8">
-        <v>6.237226072197796</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.242974084277812</v>
+        <v>11.36059021981224</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.305062087192552</v>
       </c>
       <c r="Q8">
-        <v>14.65995875135465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.189260947504229</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.23971472074421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.61174786975529</v>
+        <v>14.5504975799275</v>
       </c>
       <c r="C9">
-        <v>9.254746645664861</v>
+        <v>9.083061628146631</v>
       </c>
       <c r="D9">
-        <v>6.103814314589486</v>
+        <v>6.179289100940588</v>
       </c>
       <c r="E9">
-        <v>8.229133670032738</v>
+        <v>7.986454579224487</v>
       </c>
       <c r="F9">
-        <v>17.83782032405392</v>
+        <v>17.2215083049951</v>
       </c>
       <c r="G9">
-        <v>21.81964061252445</v>
+        <v>20.50462722091683</v>
       </c>
       <c r="I9">
-        <v>2.919815405773912</v>
+        <v>2.816450986698145</v>
       </c>
       <c r="J9">
-        <v>8.973114921597212</v>
+        <v>9.06924360523332</v>
       </c>
       <c r="K9">
-        <v>14.94313953367378</v>
+        <v>14.33572489267201</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.70955613443803</v>
       </c>
       <c r="M9">
-        <v>12.56000726555594</v>
+        <v>9.460433181043692</v>
       </c>
       <c r="N9">
-        <v>6.443273670421055</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.09978808614657</v>
+        <v>12.66110903007955</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.519078442310337</v>
       </c>
       <c r="Q9">
-        <v>14.50504002711543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.05630575232646</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.02368130869008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.85654835697589</v>
+        <v>15.75873693059791</v>
       </c>
       <c r="C10">
-        <v>9.449996077878163</v>
+        <v>9.390906820481643</v>
       </c>
       <c r="D10">
-        <v>6.448913911815469</v>
+        <v>6.57169132245249</v>
       </c>
       <c r="E10">
-        <v>8.220358137088731</v>
+        <v>7.963293280808342</v>
       </c>
       <c r="F10">
-        <v>18.16728666355997</v>
+        <v>17.40376650597664</v>
       </c>
       <c r="G10">
-        <v>22.0485856795199</v>
+        <v>21.00050426997894</v>
       </c>
       <c r="I10">
-        <v>2.672386663056919</v>
+        <v>2.601459974549042</v>
       </c>
       <c r="J10">
-        <v>8.869878022405924</v>
+        <v>8.830050507592862</v>
       </c>
       <c r="K10">
-        <v>14.70634090459643</v>
+        <v>14.02983111885692</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.40085935165745</v>
       </c>
       <c r="M10">
-        <v>13.42115358825869</v>
+        <v>9.383906812500392</v>
       </c>
       <c r="N10">
-        <v>6.607678107049236</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.69388629736562</v>
+        <v>13.53538226766216</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.688321295202379</v>
       </c>
       <c r="Q10">
-        <v>14.4230024351138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.65586879773174</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.84431954624394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.38179551630435</v>
+        <v>16.27376101359974</v>
       </c>
       <c r="C11">
-        <v>9.556584879860647</v>
+        <v>9.529856223072276</v>
       </c>
       <c r="D11">
-        <v>6.606780208863546</v>
+        <v>6.775996650312523</v>
       </c>
       <c r="E11">
-        <v>8.210660996888542</v>
+        <v>7.95195494786549</v>
       </c>
       <c r="F11">
-        <v>18.29604519426418</v>
+        <v>17.34876282036695</v>
       </c>
       <c r="G11">
-        <v>22.11612359867196</v>
+        <v>21.88562558669962</v>
       </c>
       <c r="I11">
-        <v>2.581448277821143</v>
+        <v>2.531688744533648</v>
       </c>
       <c r="J11">
-        <v>8.817730716023215</v>
+        <v>8.480433307936988</v>
       </c>
       <c r="K11">
-        <v>14.58087595752496</v>
+        <v>13.82138550640654</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.21668691222893</v>
       </c>
       <c r="M11">
-        <v>13.80261447867627</v>
+        <v>9.30322604932987</v>
       </c>
       <c r="N11">
-        <v>6.688090392688966</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.95450889950227</v>
+        <v>13.91405142342887</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.768539065608513</v>
       </c>
       <c r="Q11">
-        <v>14.37198016814191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.91987136513489</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.6673176445213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.58105380917133</v>
+        <v>16.4698258051379</v>
       </c>
       <c r="C12">
-        <v>9.587663606659396</v>
+        <v>9.568506204132875</v>
       </c>
       <c r="D12">
-        <v>6.662145816450312</v>
+        <v>6.851864352389865</v>
       </c>
       <c r="E12">
-        <v>8.212145946127611</v>
+        <v>7.953309490006892</v>
       </c>
       <c r="F12">
-        <v>18.3634786177638</v>
+        <v>17.33135698596568</v>
       </c>
       <c r="G12">
-        <v>22.17406665627655</v>
+        <v>22.34719506271199</v>
       </c>
       <c r="I12">
-        <v>2.539074071378694</v>
+        <v>2.525784633737008</v>
       </c>
       <c r="J12">
-        <v>8.803397838810717</v>
+        <v>8.338069627028009</v>
       </c>
       <c r="K12">
-        <v>14.54704287539005</v>
+        <v>13.74794709091449</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.15202347868205</v>
       </c>
       <c r="M12">
-        <v>13.9407590171804</v>
+        <v>9.27867982041605</v>
       </c>
       <c r="N12">
-        <v>6.717147361824773</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>11.05247209237208</v>
+        <v>14.05020568989299</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.797238824936078</v>
       </c>
       <c r="Q12">
-        <v>14.36628803857896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.01915863291859</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.60250627147064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.53930971424417</v>
+        <v>16.42871642114229</v>
       </c>
       <c r="C13">
-        <v>9.579085943525328</v>
+        <v>9.558017776610249</v>
       </c>
       <c r="D13">
-        <v>6.64955237721623</v>
+        <v>6.834713367205946</v>
       </c>
       <c r="E13">
-        <v>8.212748220575014</v>
+        <v>7.953866745210653</v>
       </c>
       <c r="F13">
-        <v>18.35229621222661</v>
+        <v>17.33899818200848</v>
       </c>
       <c r="G13">
-        <v>22.16736889478118</v>
+        <v>22.24938563986889</v>
       </c>
       <c r="I13">
-        <v>2.546300094098185</v>
+        <v>2.517336859409137</v>
       </c>
       <c r="J13">
-        <v>8.807429470935721</v>
+        <v>8.369640602200249</v>
       </c>
       <c r="K13">
-        <v>14.55685098777681</v>
+        <v>13.76631283556235</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.16755256604344</v>
       </c>
       <c r="M13">
-        <v>13.91037143848721</v>
+        <v>9.286171035160763</v>
       </c>
       <c r="N13">
-        <v>6.710531829265898</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>11.0315467757921</v>
+        <v>14.02028987598339</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.790720322086326</v>
       </c>
       <c r="Q13">
-        <v>14.36990506845044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.99794559327859</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.61918396393821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.398694023952</v>
+        <v>16.29037335115297</v>
       </c>
       <c r="C14">
-        <v>9.558340303462014</v>
+        <v>9.532116264732112</v>
       </c>
       <c r="D14">
-        <v>6.611050257126365</v>
+        <v>6.781890064575681</v>
       </c>
       <c r="E14">
-        <v>8.21117464189664</v>
+        <v>7.952426058037089</v>
       </c>
       <c r="F14">
-        <v>18.30301464647736</v>
+        <v>17.34900459222828</v>
       </c>
       <c r="G14">
-        <v>22.12334922808309</v>
+        <v>21.92417236456772</v>
       </c>
       <c r="I14">
-        <v>2.577151932305981</v>
+        <v>2.527792160202985</v>
       </c>
       <c r="J14">
-        <v>8.816952236547676</v>
+        <v>8.469169466857096</v>
       </c>
       <c r="K14">
-        <v>14.57916187359761</v>
+        <v>13.81643771523167</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.21206276968479</v>
       </c>
       <c r="M14">
-        <v>13.81371065515936</v>
+        <v>9.302143070124142</v>
       </c>
       <c r="N14">
-        <v>6.690328114848744</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>10.96264332581307</v>
+        <v>13.92500337940035</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.7707562556088</v>
       </c>
       <c r="Q14">
-        <v>14.37252663603674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.92811356703938</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.66315454174602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.31003441158144</v>
+        <v>16.20324351158254</v>
       </c>
       <c r="C15">
-        <v>9.549357212367832</v>
+        <v>9.520435968184811</v>
       </c>
       <c r="D15">
-        <v>6.588762644596017</v>
+        <v>6.75123304269511</v>
       </c>
       <c r="E15">
-        <v>8.208412255682648</v>
+        <v>7.949919489851727</v>
       </c>
       <c r="F15">
-        <v>18.26627687334281</v>
+        <v>17.34685414523862</v>
       </c>
       <c r="G15">
-        <v>22.08506809899529</v>
+        <v>21.72597203060914</v>
       </c>
       <c r="I15">
-        <v>2.5998816204278</v>
+        <v>2.548490268409092</v>
       </c>
       <c r="J15">
-        <v>8.820950120774704</v>
+        <v>8.527498858346467</v>
       </c>
       <c r="K15">
-        <v>14.58791139299982</v>
+        <v>13.84182516254517</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.23594939838341</v>
       </c>
       <c r="M15">
-        <v>13.75566513701246</v>
+        <v>9.307456580480039</v>
       </c>
       <c r="N15">
-        <v>6.678675769598724</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>10.9200414807116</v>
+        <v>13.86767401923535</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.759197926637079</v>
       </c>
       <c r="Q15">
-        <v>14.36947952539519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.88494992133835</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.68430201511623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.80493078956781</v>
+        <v>15.70820656400961</v>
       </c>
       <c r="C16">
-        <v>9.474229265350226</v>
+        <v>9.419619041518761</v>
       </c>
       <c r="D16">
-        <v>6.45048039179171</v>
+        <v>6.570741245831818</v>
       </c>
       <c r="E16">
-        <v>8.205353016189743</v>
+        <v>7.949158208874282</v>
       </c>
       <c r="F16">
-        <v>18.10172499460602</v>
+        <v>17.34986504258194</v>
       </c>
       <c r="G16">
-        <v>21.94550071668962</v>
+        <v>20.85606621515529</v>
       </c>
       <c r="I16">
-        <v>2.707867912911445</v>
+        <v>2.641087998219008</v>
       </c>
       <c r="J16">
-        <v>8.857241525492904</v>
+        <v>8.836497785791607</v>
       </c>
       <c r="K16">
-        <v>14.67218115873525</v>
+        <v>14.0040639392158</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.38572662887695</v>
       </c>
       <c r="M16">
-        <v>13.40862736454625</v>
+        <v>9.355961500482085</v>
       </c>
       <c r="N16">
-        <v>6.608252397185625</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.67476861302051</v>
+        <v>13.52285844436628</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.688772805394513</v>
       </c>
       <c r="Q16">
-        <v>14.38568385843517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.63655051477699</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.81592774697223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.48684410646772</v>
+        <v>15.39764189569081</v>
       </c>
       <c r="C17">
-        <v>9.428077905241793</v>
+        <v>9.35295473191265</v>
       </c>
       <c r="D17">
-        <v>6.364160864174993</v>
+        <v>6.463695992038421</v>
       </c>
       <c r="E17">
-        <v>8.204341340528734</v>
+        <v>7.9506069267782</v>
       </c>
       <c r="F17">
-        <v>18.00367536622474</v>
+        <v>17.32926078807479</v>
       </c>
       <c r="G17">
-        <v>21.86501781255614</v>
+        <v>20.48322155353395</v>
       </c>
       <c r="I17">
-        <v>2.775341532774993</v>
+        <v>2.69975499588163</v>
       </c>
       <c r="J17">
-        <v>8.880590136371737</v>
+        <v>8.984255541347245</v>
       </c>
       <c r="K17">
-        <v>14.72571093509071</v>
+        <v>14.09350889881889</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.4719603474593</v>
       </c>
       <c r="M17">
-        <v>13.19128869748602</v>
+        <v>9.380297835371968</v>
       </c>
       <c r="N17">
-        <v>6.565646466939293</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10.52206262071157</v>
+        <v>13.3051180508745</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.645648943638083</v>
       </c>
       <c r="Q17">
-        <v>14.39821295341441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.48204306837186</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.88102614027307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.30605222940322</v>
+        <v>15.22156809110163</v>
       </c>
       <c r="C18">
-        <v>9.391963147422654</v>
+        <v>9.301124371120846</v>
       </c>
       <c r="D18">
-        <v>6.310270347452564</v>
+        <v>6.399728519737284</v>
       </c>
       <c r="E18">
-        <v>8.208835197293483</v>
+        <v>7.956648230072688</v>
       </c>
       <c r="F18">
-        <v>17.96588468974882</v>
+        <v>17.32654851114278</v>
       </c>
       <c r="G18">
-        <v>21.8507810873265</v>
+        <v>20.3540249385135</v>
       </c>
       <c r="I18">
-        <v>2.804911590958561</v>
+        <v>2.722648021251664</v>
       </c>
       <c r="J18">
-        <v>8.899287421754142</v>
+        <v>9.055214692310384</v>
       </c>
       <c r="K18">
-        <v>14.76996318644653</v>
+        <v>14.15319571670021</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.52787940199224</v>
       </c>
       <c r="M18">
-        <v>13.06071050144164</v>
+        <v>9.402298142178372</v>
       </c>
       <c r="N18">
-        <v>6.539591875082032</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>10.43401092097486</v>
+        <v>13.1736562674103</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.6191463750856</v>
       </c>
       <c r="Q18">
-        <v>14.41872127729036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.39300440297558</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.92481402798692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.24032125392326</v>
+        <v>15.15759352150481</v>
       </c>
       <c r="C19">
-        <v>9.387083230709026</v>
+        <v>9.292286919789422</v>
       </c>
       <c r="D19">
-        <v>6.294782437865698</v>
+        <v>6.381166762922068</v>
       </c>
       <c r="E19">
-        <v>8.206737733647209</v>
+        <v>7.955286364589212</v>
       </c>
       <c r="F19">
-        <v>17.93975297004587</v>
+        <v>17.31113168990273</v>
       </c>
       <c r="G19">
-        <v>21.82299847153187</v>
+        <v>20.29629683128809</v>
       </c>
       <c r="I19">
-        <v>2.822397958903571</v>
+        <v>2.739339720248605</v>
       </c>
       <c r="J19">
-        <v>8.901921582247221</v>
+        <v>9.07244275571761</v>
       </c>
       <c r="K19">
-        <v>14.77517567717889</v>
+        <v>14.16374288260944</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.539877702466</v>
       </c>
       <c r="M19">
-        <v>13.01926236830496</v>
+        <v>9.402056447776111</v>
       </c>
       <c r="N19">
-        <v>6.532175565921014</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.40361449615835</v>
+        <v>13.13178260670226</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.611526922583192</v>
       </c>
       <c r="Q19">
-        <v>14.41627744763946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.36228575221653</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.92961937956064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.52142109062756</v>
+        <v>15.43135982255375</v>
       </c>
       <c r="C20">
-        <v>9.432243395495302</v>
+        <v>9.359318046409379</v>
       </c>
       <c r="D20">
-        <v>6.373117318184882</v>
+        <v>6.474662307964883</v>
       </c>
       <c r="E20">
-        <v>8.204789712300785</v>
+        <v>7.950741382810868</v>
       </c>
       <c r="F20">
-        <v>18.01537386346751</v>
+        <v>17.33361753878043</v>
       </c>
       <c r="G20">
-        <v>21.87575500454832</v>
+        <v>20.51945702880453</v>
       </c>
       <c r="I20">
-        <v>2.767338767032453</v>
+        <v>2.692514902060198</v>
       </c>
       <c r="J20">
-        <v>8.878446759851704</v>
+        <v>8.970735013192142</v>
       </c>
       <c r="K20">
-        <v>14.72094942057769</v>
+        <v>14.08527596817302</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.46365970513221</v>
       </c>
       <c r="M20">
-        <v>13.2142855216654</v>
+        <v>9.378648044517927</v>
       </c>
       <c r="N20">
-        <v>6.570020297024621</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.53844739904163</v>
+        <v>13.32822737177213</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.650098863632</v>
       </c>
       <c r="Q20">
-        <v>14.39775309202743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.4986141908569</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.87559285623226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.43468283295028</v>
+        <v>16.32765518709203</v>
       </c>
       <c r="C21">
-        <v>9.575026290557643</v>
+        <v>9.544908680517086</v>
       </c>
       <c r="D21">
-        <v>6.626357875810868</v>
+        <v>6.810557062995532</v>
       </c>
       <c r="E21">
-        <v>8.206337297379463</v>
+        <v>7.949512056609993</v>
       </c>
       <c r="F21">
-        <v>18.29829941140421</v>
+        <v>17.28637801038333</v>
       </c>
       <c r="G21">
-        <v>22.10304774966113</v>
+        <v>22.23228486783822</v>
       </c>
       <c r="I21">
-        <v>2.578846031917776</v>
+        <v>2.533941663555759</v>
       </c>
       <c r="J21">
-        <v>8.80869373610078</v>
+        <v>8.363152039349474</v>
       </c>
       <c r="K21">
-        <v>14.55821732747625</v>
+        <v>13.77075458432859</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.17865094891206</v>
       </c>
       <c r="M21">
-        <v>13.84637716061659</v>
+        <v>9.270042396576343</v>
       </c>
       <c r="N21">
-        <v>6.69818147614068</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>10.98227687012577</v>
+        <v>13.95431549019898</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.777669200714367</v>
       </c>
       <c r="Q21">
-        <v>14.35795112761808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>10.94857452996979</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.60889535535018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.01165669083235</v>
+        <v>16.89481754229415</v>
       </c>
       <c r="C22">
-        <v>9.654701105885334</v>
+        <v>9.647432538680947</v>
       </c>
       <c r="D22">
-        <v>6.781881917749925</v>
+        <v>7.02205310787544</v>
       </c>
       <c r="E22">
-        <v>8.216938638340961</v>
+        <v>7.959236631970712</v>
       </c>
       <c r="F22">
-        <v>18.51697865756315</v>
+        <v>17.2707688009947</v>
       </c>
       <c r="G22">
-        <v>22.31080037456023</v>
+        <v>23.5503288055812</v>
       </c>
       <c r="I22">
-        <v>2.555151753561145</v>
+        <v>2.599807860462669</v>
       </c>
       <c r="J22">
-        <v>8.77367944932144</v>
+        <v>8.02642488154159</v>
       </c>
       <c r="K22">
-        <v>14.4763029528526</v>
+        <v>13.57668951352775</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.00616845786453</v>
       </c>
       <c r="M22">
-        <v>14.239495611906</v>
+        <v>9.218244683159567</v>
       </c>
       <c r="N22">
-        <v>6.781383651249046</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.2862017699894</v>
+        <v>14.34296862397592</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6.860095661155554</v>
       </c>
       <c r="Q22">
-        <v>14.3581783855148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.27782996041508</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.44394097706319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.71265022715372</v>
+        <v>16.59949778217981</v>
       </c>
       <c r="C23">
-        <v>9.599472283131915</v>
+        <v>9.582802674117891</v>
       </c>
       <c r="D23">
-        <v>6.694570464144749</v>
+        <v>6.898304189733738</v>
       </c>
       <c r="E23">
-        <v>8.217381989031313</v>
+        <v>7.958504410304687</v>
       </c>
       <c r="F23">
-        <v>18.42239658637811</v>
+        <v>17.33077393481657</v>
       </c>
       <c r="G23">
-        <v>22.23818118108752</v>
+        <v>22.69982340480518</v>
       </c>
       <c r="I23">
-        <v>2.50383524181008</v>
+        <v>2.543364739355377</v>
       </c>
       <c r="J23">
-        <v>8.798588786677454</v>
+        <v>8.247536197430234</v>
       </c>
       <c r="K23">
-        <v>14.53677943680934</v>
+        <v>13.70874967122258</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.11591335608649</v>
       </c>
       <c r="M23">
-        <v>14.02599734302836</v>
+        <v>9.270585856500457</v>
       </c>
       <c r="N23">
-        <v>6.734496213328633</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.11586051879903</v>
+        <v>14.13391916060019</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6.814291593031756</v>
       </c>
       <c r="Q23">
-        <v>14.37381781105556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.09563393319831</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.56800884895403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.51666543291428</v>
+        <v>15.42678677012394</v>
       </c>
       <c r="C24">
-        <v>9.410265514544449</v>
+        <v>9.33181043790495</v>
       </c>
       <c r="D24">
-        <v>6.36129219834681</v>
+        <v>6.461863517131698</v>
       </c>
       <c r="E24">
-        <v>8.214659915296421</v>
+        <v>7.96031831498383</v>
       </c>
       <c r="F24">
-        <v>18.04707029961356</v>
+        <v>17.36766018574441</v>
       </c>
       <c r="G24">
-        <v>21.9346493192813</v>
+        <v>20.56643572915737</v>
       </c>
       <c r="I24">
-        <v>2.751312519810576</v>
+        <v>2.672413548647598</v>
       </c>
       <c r="J24">
-        <v>8.889743385168913</v>
+        <v>8.986138004980452</v>
       </c>
       <c r="K24">
-        <v>14.7502613925515</v>
+        <v>14.11386766024599</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.4851246361353</v>
       </c>
       <c r="M24">
-        <v>13.19560789093006</v>
+        <v>9.400033709677698</v>
       </c>
       <c r="N24">
-        <v>6.564307836920716</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.53226975774095</v>
+        <v>13.3095297344507</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.644412631580779</v>
       </c>
       <c r="Q24">
-        <v>14.42414731951644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.49234554403093</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.90300687315328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.11217900212482</v>
+        <v>14.06595753724446</v>
       </c>
       <c r="C25">
-        <v>9.204181319741437</v>
+        <v>8.993938260221574</v>
       </c>
       <c r="D25">
-        <v>5.980497870845628</v>
+        <v>6.039622451691713</v>
       </c>
       <c r="E25">
-        <v>8.224187749415297</v>
+        <v>7.987241361393265</v>
       </c>
       <c r="F25">
-        <v>17.68541799935245</v>
+        <v>17.1154301288632</v>
       </c>
       <c r="G25">
-        <v>21.68174292301804</v>
+        <v>20.3191594596864</v>
       </c>
       <c r="I25">
-        <v>3.033425017852318</v>
+        <v>2.921672941155006</v>
       </c>
       <c r="J25">
-        <v>9.003358740459115</v>
+        <v>9.130925570687047</v>
       </c>
       <c r="K25">
-        <v>15.0065672217493</v>
+        <v>14.4216268251256</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.80315699574473</v>
       </c>
       <c r="M25">
-        <v>12.2372211665682</v>
+        <v>9.482490317100122</v>
       </c>
       <c r="N25">
-        <v>6.38908923650335</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>9.87258861624025</v>
+        <v>12.33262184520742</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.462930052022696</v>
       </c>
       <c r="Q25">
-        <v>14.51484106603301</v>
+        <v>9.826596411332643</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.06347501520673</v>
       </c>
     </row>
   </sheetData>
